--- a/results/CSG/dataset_08/results_excel_26-9-22_freelancer_constrained_1_.xlsx
+++ b/results/CSG/dataset_08/results_excel_26-9-22_freelancer_constrained_1_.xlsx
@@ -579,64 +579,64 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="H2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I2">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>543</v>
+        <v>492</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2">
-        <v>607</v>
+        <v>546</v>
       </c>
       <c r="P2">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q2">
-        <v>2.249645707699826</v>
+        <v>2.313634929180631</v>
       </c>
       <c r="R2">
-        <v>399.0226747072111</v>
+        <v>367.063713824246</v>
       </c>
       <c r="S2">
-        <v>9.484375</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="T2">
-        <v>9.484375</v>
+        <v>10.11111111111111</v>
       </c>
       <c r="U2">
-        <v>2.249645707699826</v>
+        <v>2.313634929180631</v>
       </c>
       <c r="V2">
-        <v>399.0226747072111</v>
+        <v>367.063713824246</v>
       </c>
       <c r="W2">
-        <v>940</v>
+        <v>991</v>
       </c>
       <c r="X2">
         <v>1483</v>
       </c>
       <c r="Y2">
-        <v>940</v>
+        <v>991</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -659,67 +659,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>555</v>
+        <v>457</v>
       </c>
       <c r="H3">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="I3">
-        <v>493</v>
+        <v>426</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>493</v>
+        <v>438</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="O3">
-        <v>555</v>
+        <v>498</v>
       </c>
       <c r="P3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q3">
-        <v>2.191833728701343</v>
+        <v>2.116255514802552</v>
       </c>
       <c r="R3">
-        <v>357.1063088205167</v>
+        <v>311.0246691118468</v>
       </c>
       <c r="S3">
-        <v>8.951612903225806</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T3">
-        <v>8.951612903225806</v>
+        <v>14.74193548387097</v>
       </c>
       <c r="U3">
-        <v>2.191833728701343</v>
+        <v>2.690696186409058</v>
       </c>
       <c r="V3">
-        <v>357.1063088205167</v>
+        <v>342.5884182213192</v>
       </c>
       <c r="W3">
-        <v>630</v>
+        <v>697</v>
       </c>
       <c r="X3">
         <v>1123</v>
       </c>
       <c r="Y3">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>1.017518248175183</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -739,67 +739,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>192</v>
+        <v>156</v>
       </c>
       <c r="H4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I4">
+        <v>136</v>
+      </c>
+      <c r="J4">
+        <v>0.08</v>
+      </c>
+      <c r="K4">
+        <v>137</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>0.08</v>
+      </c>
+      <c r="N4">
+        <v>0.9927007299270073</v>
+      </c>
+      <c r="O4">
         <v>162</v>
       </c>
-      <c r="J4">
-        <v>0.1</v>
-      </c>
-      <c r="K4">
-        <v>162</v>
-      </c>
-      <c r="L4">
-        <v>5</v>
-      </c>
-      <c r="M4">
-        <v>0.1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>192</v>
-      </c>
       <c r="P4">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>1.856297990365626</v>
+        <v>1.868720510364183</v>
       </c>
       <c r="R4">
-        <v>106.3110602890312</v>
+        <v>90.28198724089542</v>
       </c>
       <c r="S4">
-        <v>6.4</v>
+        <v>6.48</v>
       </c>
       <c r="T4">
-        <v>6.4</v>
+        <v>7.8</v>
       </c>
       <c r="U4">
-        <v>1.856297990365626</v>
+        <v>2.054123733695546</v>
       </c>
       <c r="V4">
-        <v>106.3110602890312</v>
+        <v>94.91752532608908</v>
       </c>
       <c r="W4">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="X4">
         <v>823</v>
       </c>
       <c r="Y4">
-        <v>661</v>
+        <v>686</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>1.001457725947522</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -819,67 +819,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I5">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.9683544303797469</v>
+        <v>0.965034965034965</v>
       </c>
       <c r="O5">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="P5">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="Q5">
-        <v>1.243794298512608</v>
+        <v>1.294219682173714</v>
       </c>
       <c r="R5">
-        <v>78.39716489519311</v>
+        <v>73.11213716261943</v>
       </c>
       <c r="S5">
-        <v>3.46875</v>
+        <v>3.648148148148148</v>
       </c>
       <c r="T5">
-        <v>4.1875</v>
+        <v>4.631578947368421</v>
       </c>
       <c r="U5">
-        <v>1.432103897151185</v>
+        <v>1.532897835311766</v>
       </c>
       <c r="V5">
-        <v>84.25901293674313</v>
+        <v>79.74988225815289</v>
       </c>
       <c r="W5">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="X5">
         <v>576</v>
       </c>
       <c r="Y5">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="Z5">
-        <v>1.011961722488038</v>
+        <v>1.011547344110854</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -899,64 +899,64 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I6">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
         <v>1</v>
       </c>
       <c r="O6">
-        <v>462</v>
+        <v>407</v>
       </c>
       <c r="P6">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q6">
-        <v>2.639057329615258</v>
+        <v>2.60761580378044</v>
       </c>
       <c r="R6">
-        <v>341.9111081226965</v>
+        <v>298.7715258865868</v>
       </c>
       <c r="S6">
-        <v>14</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="T6">
-        <v>14</v>
+        <v>13.56666666666667</v>
       </c>
       <c r="U6">
-        <v>2.639057329615258</v>
+        <v>2.60761580378044</v>
       </c>
       <c r="V6">
-        <v>341.9111081226965</v>
+        <v>298.7715258865868</v>
       </c>
       <c r="W6">
-        <v>721</v>
+        <v>773</v>
       </c>
       <c r="X6">
         <v>1150</v>
       </c>
       <c r="Y6">
-        <v>721</v>
+        <v>773</v>
       </c>
       <c r="Z6">
         <v>1</v>
@@ -979,64 +979,64 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>370</v>
+        <v>334</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7">
-        <v>423</v>
+        <v>377</v>
       </c>
       <c r="P7">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="Q7">
-        <v>2.077080265494156</v>
+        <v>2.171045071754448</v>
       </c>
       <c r="R7">
-        <v>259.9147459288097</v>
+        <v>240.6450619145587</v>
       </c>
       <c r="S7">
-        <v>7.981132075471698</v>
+        <v>8.767441860465116</v>
       </c>
       <c r="T7">
-        <v>7.981132075471698</v>
+        <v>8.767441860465116</v>
       </c>
       <c r="U7">
-        <v>2.077080265494156</v>
+        <v>2.171045071754448</v>
       </c>
       <c r="V7">
-        <v>259.9147459288097</v>
+        <v>240.6450619145587</v>
       </c>
       <c r="W7">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="X7">
         <v>963</v>
       </c>
       <c r="Y7">
-        <v>593</v>
+        <v>629</v>
       </c>
       <c r="Z7">
         <v>1</v>
@@ -1059,67 +1059,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="H8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I8">
-        <v>404</v>
+        <v>355</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>409</v>
+        <v>355</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.9877750611246944</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>485</v>
+        <v>406</v>
       </c>
       <c r="P8">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="Q8">
-        <v>1.853415550651152</v>
+        <v>2.074527526877407</v>
       </c>
       <c r="R8">
-        <v>268.1404181505125</v>
+        <v>249.1990961292523</v>
       </c>
       <c r="S8">
-        <v>6.381578947368421</v>
+        <v>7.96078431372549</v>
       </c>
       <c r="T8">
-        <v>8.76923076923077</v>
+        <v>7.96078431372549</v>
       </c>
       <c r="U8">
-        <v>2.171249090932959</v>
+        <v>2.074527526877407</v>
       </c>
       <c r="V8">
-        <v>291.0950472714861</v>
+        <v>249.1990961292523</v>
       </c>
       <c r="W8">
-        <v>983</v>
+        <v>1032</v>
       </c>
       <c r="X8">
         <v>1387</v>
       </c>
       <c r="Y8">
-        <v>978</v>
+        <v>1032</v>
       </c>
       <c r="Z8">
-        <v>1.005112474437628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1139,67 +1139,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>552</v>
+        <v>467</v>
       </c>
       <c r="H9">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="I9">
-        <v>460</v>
+        <v>400</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>465</v>
+        <v>400</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.989247311827957</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>562</v>
+        <v>467</v>
       </c>
       <c r="P9">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="Q9">
-        <v>1.756790871390308</v>
+        <v>1.941636638277931</v>
       </c>
       <c r="R9">
-        <v>294.5912854751401</v>
+        <v>269.9103452353786</v>
       </c>
       <c r="S9">
-        <v>5.793814432989691</v>
+        <v>6.970149253731344</v>
       </c>
       <c r="T9">
-        <v>6</v>
+        <v>6.970149253731344</v>
       </c>
       <c r="U9">
-        <v>1.791759469228055</v>
+        <v>1.941636638277931</v>
       </c>
       <c r="V9">
-        <v>295.158128831019</v>
+        <v>269.9103452353786</v>
       </c>
       <c r="W9">
-        <v>957</v>
+        <v>1017</v>
       </c>
       <c r="X9">
         <v>1417</v>
       </c>
       <c r="Y9">
-        <v>952</v>
+        <v>1017</v>
       </c>
       <c r="Z9">
-        <v>1.005252100840336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1219,67 +1219,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="H10">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I10">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>274</v>
+        <v>240</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.9963503649635036</v>
+        <v>0.9958333333333333</v>
       </c>
       <c r="O10">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="P10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="Q10">
-        <v>1.868720510364183</v>
+        <v>1.945910149055313</v>
       </c>
       <c r="R10">
-        <v>180.5639744817908</v>
+        <v>162.1635940377875</v>
       </c>
       <c r="S10">
-        <v>6.48</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>8.184210526315789</v>
+        <v>9.535714285714286</v>
       </c>
       <c r="U10">
-        <v>2.102206752452848</v>
+        <v>2.255044148225046</v>
       </c>
       <c r="V10">
-        <v>193.1161434067918</v>
+        <v>175.8587638496987</v>
       </c>
       <c r="W10">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="X10">
         <v>933</v>
       </c>
       <c r="Y10">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="Z10">
-        <v>1.001517450682853</v>
+        <v>1.001443001443001</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1299,67 +1299,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>388</v>
+        <v>325</v>
       </c>
       <c r="H11">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>331</v>
+        <v>278</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>342</v>
+        <v>289</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.9678362573099415</v>
+        <v>0.9619377162629758</v>
       </c>
       <c r="O11">
-        <v>419</v>
+        <v>356</v>
       </c>
       <c r="P11">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="Q11">
-        <v>1.694065498068454</v>
+        <v>1.670238111461064</v>
       </c>
       <c r="R11">
-        <v>211.5569566487291</v>
+        <v>177.0940465321087</v>
       </c>
       <c r="S11">
-        <v>5.441558441558442</v>
+        <v>5.313432835820896</v>
       </c>
       <c r="T11">
-        <v>6.807017543859649</v>
+        <v>6.914893617021277</v>
       </c>
       <c r="U11">
-        <v>1.917954071788723</v>
+        <v>1.933677580619679</v>
       </c>
       <c r="V11">
-        <v>221.6766179080428</v>
+        <v>187.1171537108751</v>
       </c>
       <c r="W11">
-        <v>749</v>
+        <v>802</v>
       </c>
       <c r="X11">
         <v>1080</v>
       </c>
       <c r="Y11">
-        <v>738</v>
+        <v>791</v>
       </c>
       <c r="Z11">
-        <v>1.01490514905149</v>
+        <v>1.013906447534766</v>
       </c>
     </row>
   </sheetData>
